--- a/파이썬엑셀다루기/참가자_data.xlsx
+++ b/파이썬엑셀다루기/참가자_data.xlsx
@@ -414,14 +414,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>현재가</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C2" t="n">
+        <v>53900</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>고가</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>현재가</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82400</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83200</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>고가</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>현재가</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>59600</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>고가</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/파이썬엑셀다루기/참가자_data.xlsx
+++ b/파이썬엑셀다루기/참가자_data.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="오징어게임" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ozkids 크롤링" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,69 +414,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>현재가</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>53700</v>
-      </c>
-      <c r="C2" t="n">
-        <v>53900</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>고가</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>현재가</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>82400</v>
-      </c>
-      <c r="C3" t="n">
-        <v>83200</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>고가</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>현재가</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>59600</v>
-      </c>
-      <c r="C4" t="n">
-        <v>61000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>고가</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -487,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,32 +443,99 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>참가번호</t>
+          <t>product_price</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>성명</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>오일남</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>456</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>성기훈</t>
+          <t>product_code</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11900.00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P0000HKU</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11900.00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>P0000HKV</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12900.00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P0000HKX</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6900.00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P0000HKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6900.00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P0000HKZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12900.00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>P0000HLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10900.00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>P0000HLB</t>
         </is>
       </c>
     </row>

--- a/파이썬엑셀다루기/참가자_data.xlsx
+++ b/파이썬엑셀다루기/참가자_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,66 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11900.00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>P0000HKU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11900.00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>P0000HKV</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11900.00</t>
+          <t>12900.00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P0000HKU</t>
+          <t>P0000HKX</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11900.00</t>
+          <t>6900.00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P0000HKV</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
+          <t>P0000HKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6900.00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P0000HKZ</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -487,55 +520,115 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P0000HKX</t>
+          <t>P0000HLA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6900.00</t>
+          <t>10900.00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P0000HKY</t>
+          <t>P0000HLB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6900.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P0000HKZ</t>
+          <t>P0000HLC</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12900.00</t>
+          <t>23900.00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P0000HLA</t>
+          <t>P0000HLD</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10900.00</t>
+          <t>16900.00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P0000HLB</t>
+          <t>P0000HLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22900.00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P0000HLF</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>P0000HLH</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12900.00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>P0000HLJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>P0000HLK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18900.00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>P0000HLL</t>
         </is>
       </c>
     </row>

--- a/파이썬엑셀다루기/참가자_data.xlsx
+++ b/파이썬엑셀다루기/참가자_data.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ozkids 크롤링" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="오즈키즈, 농심 크롤링" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,189 +446,116 @@
           <t>product_price</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>product_code</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>image_url</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11900.00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>P0000HKU</t>
+          <t>15000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>P0000FON</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://ozkiz.com/web/product/big/201910/3eb80670f0f22d9a7250180d40d0a8c0.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11900.00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>P0000HKV</t>
+          <t>20000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P0000FOP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://ozkiz.com/web/product/big/202206/726d47c00cd47f279ebb963f091bc701.jpg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12900.00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>P0000HKX</t>
+          <t>8910.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>P0000FOM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://nongshimmall.com/web/product/big/202208/bbe469348411936f1bb32f1826b4c1f8.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6900.00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>P0000HKY</t>
+          <t>8910.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>P0000FON</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://nongshimmall.com/web/product/big/202208/2f30e874c49b1d188b9e21e800ba5c86.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6900.00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>P0000HKZ</t>
+          <t>14190.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>P0000FOO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://nongshimmall.com/web/product/big/20220816/51f4ccddf9d21421a73f66a7ff6e3da8.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12900.00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>P0000HLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10900.00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>P0000HLB</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>P0000HLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>23900.00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>P0000HLD</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>16900.00</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>P0000HLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>22900.00</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>P0000HLF</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>P0000HLH</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12900.00</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>P0000HLJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>P0000HLK</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>18900.00</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>P0000HLL</t>
+          <t>36300.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>P0000FOP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://nongshimmall.com/web/product/big/202208/38acf09a71c65066508e22b4ccfec3f5.png</t>
         </is>
       </c>
     </row>
